--- a/previous_data.xlsx
+++ b/previous_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\XSKT\Dữ liệu dự đoán\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TCTK\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8423F4-D88B-4844-B472-50B50A13D0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B51727-CAA6-4929-81F6-5107A7882213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{4A411FF7-5ACD-43C0-A167-83057CAB0CEF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4A411FF7-5ACD-43C0-A167-83057CAB0CEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -458,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009DD405-A243-4113-92F2-1FC83D069B40}">
-  <dimension ref="A1:G1186"/>
+  <dimension ref="A1:G1189"/>
   <sheetViews>
-    <sheetView topLeftCell="A1172" workbookViewId="0">
-      <selection activeCell="B1181" sqref="B1181"/>
+    <sheetView tabSelected="1" topLeftCell="A1157" workbookViewId="0">
+      <selection activeCell="F1196" sqref="F1196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -27612,59 +27612,215 @@
       </c>
     </row>
     <row r="1181" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1181" s="3"/>
-      <c r="C1181" s="1"/>
-      <c r="D1181" s="1"/>
-      <c r="E1181" s="1"/>
-      <c r="F1181" s="1"/>
-      <c r="G1181" s="1"/>
+      <c r="A1181" s="3">
+        <v>45385</v>
+      </c>
+      <c r="B1181" s="1">
+        <v>7</v>
+      </c>
+      <c r="C1181" s="1">
+        <v>11</v>
+      </c>
+      <c r="D1181" s="1">
+        <v>14</v>
+      </c>
+      <c r="E1181" s="1">
+        <v>22</v>
+      </c>
+      <c r="F1181" s="1">
+        <v>29</v>
+      </c>
+      <c r="G1181" s="1">
+        <v>34</v>
+      </c>
     </row>
     <row r="1182" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1182" s="2"/>
-      <c r="B1182" s="1"/>
-      <c r="C1182" s="1"/>
-      <c r="D1182" s="1"/>
-      <c r="E1182" s="1"/>
-      <c r="F1182" s="1"/>
-      <c r="G1182" s="1"/>
+      <c r="A1182" s="2">
+        <v>45387</v>
+      </c>
+      <c r="B1182" s="1">
+        <v>14</v>
+      </c>
+      <c r="C1182" s="1">
+        <v>18</v>
+      </c>
+      <c r="D1182" s="1">
+        <v>22</v>
+      </c>
+      <c r="E1182" s="1">
+        <v>29</v>
+      </c>
+      <c r="F1182" s="1">
+        <v>36</v>
+      </c>
+      <c r="G1182" s="1">
+        <v>37</v>
+      </c>
     </row>
     <row r="1183" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1183" s="3"/>
-      <c r="B1183" s="1"/>
-      <c r="C1183" s="1"/>
-      <c r="D1183" s="1"/>
-      <c r="E1183" s="1"/>
-      <c r="F1183" s="1"/>
-      <c r="G1183" s="1"/>
+      <c r="A1183" s="3">
+        <v>45389</v>
+      </c>
+      <c r="B1183" s="1">
+        <v>3</v>
+      </c>
+      <c r="C1183" s="1">
+        <v>11</v>
+      </c>
+      <c r="D1183" s="1">
+        <v>15</v>
+      </c>
+      <c r="E1183" s="1">
+        <v>17</v>
+      </c>
+      <c r="F1183" s="1">
+        <v>24</v>
+      </c>
+      <c r="G1183" s="1">
+        <v>35</v>
+      </c>
     </row>
     <row r="1184" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1184" s="2"/>
-      <c r="B1184" s="1"/>
-      <c r="C1184" s="1"/>
-      <c r="D1184" s="1"/>
-      <c r="E1184" s="1"/>
-      <c r="F1184" s="1"/>
-      <c r="G1184" s="1"/>
+      <c r="A1184" s="2">
+        <v>45392</v>
+      </c>
+      <c r="B1184" s="1">
+        <v>2</v>
+      </c>
+      <c r="C1184" s="1">
+        <v>10</v>
+      </c>
+      <c r="D1184" s="1">
+        <v>30</v>
+      </c>
+      <c r="E1184" s="1">
+        <v>33</v>
+      </c>
+      <c r="F1184" s="1">
+        <v>34</v>
+      </c>
+      <c r="G1184" s="1">
+        <v>40</v>
+      </c>
     </row>
     <row r="1185" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1185" s="3"/>
-      <c r="B1185" s="1"/>
-      <c r="C1185" s="1"/>
-      <c r="D1185" s="1"/>
-      <c r="E1185" s="1"/>
-      <c r="F1185" s="1"/>
-      <c r="G1185" s="1"/>
+      <c r="A1185" s="3">
+        <v>45394</v>
+      </c>
+      <c r="B1185" s="1">
+        <v>6</v>
+      </c>
+      <c r="C1185" s="1">
+        <v>17</v>
+      </c>
+      <c r="D1185" s="1">
+        <v>18</v>
+      </c>
+      <c r="E1185" s="1">
+        <v>26</v>
+      </c>
+      <c r="F1185" s="1">
+        <v>43</v>
+      </c>
+      <c r="G1185" s="1">
+        <v>45</v>
+      </c>
     </row>
     <row r="1186" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1186" s="2"/>
-      <c r="C1186" s="1"/>
-      <c r="D1186" s="1"/>
-      <c r="E1186" s="1"/>
-      <c r="F1186" s="1"/>
-      <c r="G1186" s="1"/>
+      <c r="A1186" s="2">
+        <v>45396</v>
+      </c>
+      <c r="B1186" s="1">
+        <v>7</v>
+      </c>
+      <c r="C1186" s="1">
+        <v>12</v>
+      </c>
+      <c r="D1186" s="1">
+        <v>16</v>
+      </c>
+      <c r="E1186" s="1">
+        <v>29</v>
+      </c>
+      <c r="F1186" s="1">
+        <v>42</v>
+      </c>
+      <c r="G1186" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1187" s="3">
+        <v>45399</v>
+      </c>
+      <c r="B1187" s="1">
+        <v>7</v>
+      </c>
+      <c r="C1187" s="1">
+        <v>21</v>
+      </c>
+      <c r="D1187" s="1">
+        <v>36</v>
+      </c>
+      <c r="E1187" s="1">
+        <v>38</v>
+      </c>
+      <c r="F1187" s="1">
+        <v>40</v>
+      </c>
+      <c r="G1187" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1188" s="2">
+        <v>45401</v>
+      </c>
+      <c r="B1188" s="1">
+        <v>2</v>
+      </c>
+      <c r="C1188" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1188" s="1">
+        <v>20</v>
+      </c>
+      <c r="E1188" s="1">
+        <v>21</v>
+      </c>
+      <c r="F1188" s="1">
+        <v>32</v>
+      </c>
+      <c r="G1188" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1189" s="3">
+        <v>45403</v>
+      </c>
+      <c r="B1189" s="1">
+        <v>9</v>
+      </c>
+      <c r="C1189" s="1">
+        <v>16</v>
+      </c>
+      <c r="D1189" s="1">
+        <v>26</v>
+      </c>
+      <c r="E1189" s="1">
+        <v>27</v>
+      </c>
+      <c r="F1189" s="1">
+        <v>32</v>
+      </c>
+      <c r="G1189" s="1">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -27672,8 +27828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E96BA2-0938-4692-8F4C-2DE10A4323CC}">
   <dimension ref="A1:H1187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1172" workbookViewId="0">
-      <selection activeCell="H1181" sqref="H1181"/>
+    <sheetView topLeftCell="A1169" workbookViewId="0">
+      <selection activeCell="A1181" sqref="A1181:G1186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
